--- a/conf/files/structureSimple0.2.xlsx
+++ b/conf/files/structureSimple0.2.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nacho\Web_Index\wiFetcher\conf\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="292" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="292"/>
   </bookViews>
   <sheets>
-    <sheet name="Structure" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Indicators" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Countries" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Providers" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Structure" sheetId="1" r:id="rId1"/>
+    <sheet name="Indicators" sheetId="2" r:id="rId2"/>
+    <sheet name="Countries" sheetId="3" r:id="rId3"/>
+    <sheet name="Providers" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="255">
   <si>
     <t>type</t>
   </si>
@@ -759,17 +763,37 @@
   </si>
   <si>
     <t>http://www.weso.es</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>Web Index</t>
+  </si>
+  <si>
+    <t>7D9900</t>
+  </si>
+  <si>
+    <t>The World Wide Web Foundation Web Index 2013</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>1f77b4</t>
+  </si>
+  <si>
+    <t>2ca02c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="# ?/?" numFmtId="165"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -777,29 +801,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -816,7 +825,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -824,98 +833,319 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="5" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="8" customBuiltin="false" name="*unknown*" xfId="20"/>
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="C1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100">
-      <selection activeCell="K7" activeCellId="1" pane="topLeft" sqref="H7 K7"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4438775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0051020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.7755102040816"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="15"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.219387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="19.6632653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5561224489796"/>
+    <col min="1" max="1" width="13.42578125"/>
+    <col min="2" max="2" width="13"/>
+    <col min="3" max="3" width="11.5703125"/>
+    <col min="4" max="4" width="26.7109375"/>
+    <col min="7" max="7" width="16"/>
+    <col min="8" max="9" width="15"/>
+    <col min="10" max="11" width="24.28515625"/>
+    <col min="12" max="13" width="19.7109375"/>
+    <col min="14" max="1027" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="1" s="1">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -929,116 +1159,168 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="2">
+    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C3" s="4">
         <v>0.4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="3">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="n">
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="4">
+      <c r="F3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="5">
-      <c r="A5" s="3" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C6" s="4">
         <v>0.6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="6">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="7">
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C8" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1046,23 +1328,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100">
-      <selection activeCell="H7" activeCellId="0" pane="topLeft" sqref="H7"/>
+    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5561224489796"/>
+    <col min="1" max="1" width="13"/>
+    <col min="2" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="1" s="1">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1121,14 +1400,14 @@
         <v>35</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1156,14 +1435,14 @@
         <v>42</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="4">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1191,14 +1470,14 @@
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1226,14 +1505,14 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="5">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1261,14 +1540,14 @@
         <v>52</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="6">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1296,14 +1575,14 @@
         <v>57</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="7">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1332,10 +1611,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1343,29 +1621,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A73" view="normal" windowProtection="false" workbookViewId="0" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="H7 A2"/>
+    <sheetView topLeftCell="A73" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="A2" activeCellId="1" sqref="H7 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="16.8928571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="11.5561224489796"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.5612244897959"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.7755102040816"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="22.219387755102"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="11.5561224489796"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.8826530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.5561224489796"/>
+    <col min="1" max="2" width="16.85546875"/>
+    <col min="3" max="7" width="11.5703125"/>
+    <col min="8" max="8" width="15.5703125"/>
+    <col min="9" max="9" width="16.7109375"/>
+    <col min="10" max="11" width="22.28515625"/>
+    <col min="12" max="13" width="11.5703125"/>
+    <col min="14" max="14" width="15.85546875"/>
+    <col min="15" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="1" s="1">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
@@ -1406,7 +1681,7 @@
         <v>73</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>74</v>
       </c>
@@ -1417,7 +1692,7 @@
         <v>76</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>77</v>
       </c>
@@ -1428,7 +1703,7 @@
         <v>79</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>80</v>
       </c>
@@ -1439,7 +1714,7 @@
         <v>82</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>83</v>
       </c>
@@ -1450,7 +1725,7 @@
         <v>85</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>86</v>
       </c>
@@ -1461,7 +1736,7 @@
         <v>79</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>88</v>
       </c>
@@ -1472,7 +1747,7 @@
         <v>82</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>90</v>
       </c>
@@ -1483,7 +1758,7 @@
         <v>92</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>93</v>
       </c>
@@ -1494,7 +1769,7 @@
         <v>92</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>95</v>
       </c>
@@ -1505,7 +1780,7 @@
         <v>76</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="11">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>97</v>
       </c>
@@ -1516,7 +1791,7 @@
         <v>92</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>99</v>
       </c>
@@ -1527,7 +1802,7 @@
         <v>92</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>101</v>
       </c>
@@ -1538,7 +1813,7 @@
         <v>76</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>103</v>
       </c>
@@ -1549,7 +1824,7 @@
         <v>76</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>105</v>
       </c>
@@ -1560,7 +1835,7 @@
         <v>79</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>107</v>
       </c>
@@ -1571,7 +1846,7 @@
         <v>76</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>109</v>
       </c>
@@ -1582,7 +1857,7 @@
         <v>76</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>111</v>
       </c>
@@ -1593,7 +1868,7 @@
         <v>82</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>113</v>
       </c>
@@ -1604,7 +1879,7 @@
         <v>82</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>115</v>
       </c>
@@ -1615,7 +1890,7 @@
         <v>76</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>117</v>
       </c>
@@ -1626,7 +1901,7 @@
         <v>92</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>119</v>
       </c>
@@ -1637,7 +1912,7 @@
         <v>82</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>121</v>
       </c>
@@ -1648,7 +1923,7 @@
         <v>92</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>123</v>
       </c>
@@ -1659,7 +1934,7 @@
         <v>82</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>125</v>
       </c>
@@ -1670,7 +1945,7 @@
         <v>82</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>127</v>
       </c>
@@ -1681,7 +1956,7 @@
         <v>82</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>129</v>
       </c>
@@ -1692,7 +1967,7 @@
         <v>92</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>131</v>
       </c>
@@ -1703,7 +1978,7 @@
         <v>82</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>133</v>
       </c>
@@ -1714,7 +1989,7 @@
         <v>82</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>135</v>
       </c>
@@ -1725,7 +2000,7 @@
         <v>82</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>137</v>
       </c>
@@ -1736,7 +2011,7 @@
         <v>79</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>139</v>
       </c>
@@ -1747,7 +2022,7 @@
         <v>79</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>141</v>
       </c>
@@ -1758,7 +2033,7 @@
         <v>82</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>143</v>
       </c>
@@ -1769,7 +2044,7 @@
         <v>85</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>145</v>
       </c>
@@ -1780,7 +2055,7 @@
         <v>82</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>147</v>
       </c>
@@ -1791,7 +2066,7 @@
         <v>76</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>149</v>
       </c>
@@ -1802,7 +2077,7 @@
         <v>79</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>151</v>
       </c>
@@ -1813,7 +2088,7 @@
         <v>85</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>153</v>
       </c>
@@ -1824,7 +2099,7 @@
         <v>85</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>155</v>
       </c>
@@ -1835,7 +2110,7 @@
         <v>92</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>157</v>
       </c>
@@ -1846,7 +2121,7 @@
         <v>79</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>159</v>
       </c>
@@ -1857,7 +2132,7 @@
         <v>92</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>161</v>
       </c>
@@ -1868,7 +2143,7 @@
         <v>79</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>163</v>
       </c>
@@ -1879,7 +2154,7 @@
         <v>92</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>165</v>
       </c>
@@ -1890,7 +2165,7 @@
         <v>92</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>167</v>
       </c>
@@ -1901,7 +2176,7 @@
         <v>76</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>169</v>
       </c>
@@ -1912,7 +2187,7 @@
         <v>92</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>171</v>
       </c>
@@ -1923,7 +2198,7 @@
         <v>92</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>173</v>
       </c>
@@ -1934,7 +2209,7 @@
         <v>79</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>175</v>
       </c>
@@ -1945,7 +2220,7 @@
         <v>82</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>177</v>
       </c>
@@ -1956,7 +2231,7 @@
         <v>79</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>179</v>
       </c>
@@ -1967,7 +2242,7 @@
         <v>92</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>181</v>
       </c>
@@ -1978,7 +2253,7 @@
         <v>82</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>183</v>
       </c>
@@ -1989,7 +2264,7 @@
         <v>79</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>185</v>
       </c>
@@ -2000,7 +2275,7 @@
         <v>76</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>187</v>
       </c>
@@ -2011,7 +2286,7 @@
         <v>79</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>189</v>
       </c>
@@ -2022,7 +2297,7 @@
         <v>82</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>191</v>
       </c>
@@ -2033,7 +2308,7 @@
         <v>82</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>193</v>
       </c>
@@ -2044,7 +2319,7 @@
         <v>85</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>195</v>
       </c>
@@ -2055,7 +2330,7 @@
         <v>82</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>197</v>
       </c>
@@ -2066,7 +2341,7 @@
         <v>92</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>199</v>
       </c>
@@ -2077,7 +2352,7 @@
         <v>85</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>201</v>
       </c>
@@ -2088,7 +2363,7 @@
         <v>92</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>203</v>
       </c>
@@ -2099,7 +2374,7 @@
         <v>79</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>205</v>
       </c>
@@ -2110,7 +2385,7 @@
         <v>92</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>207</v>
       </c>
@@ -2121,7 +2396,7 @@
         <v>82</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>209</v>
       </c>
@@ -2132,7 +2407,7 @@
         <v>82</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>211</v>
       </c>
@@ -2143,7 +2418,7 @@
         <v>82</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>213</v>
       </c>
@@ -2154,7 +2429,7 @@
         <v>92</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>215</v>
       </c>
@@ -2165,7 +2440,7 @@
         <v>79</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>217</v>
       </c>
@@ -2176,7 +2451,7 @@
         <v>92</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>219</v>
       </c>
@@ -2187,7 +2462,7 @@
         <v>82</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>221</v>
       </c>
@@ -2198,7 +2473,7 @@
         <v>92</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>223</v>
       </c>
@@ -2209,7 +2484,7 @@
         <v>85</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>225</v>
       </c>
@@ -2220,7 +2495,7 @@
         <v>82</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>227</v>
       </c>
@@ -2231,7 +2506,7 @@
         <v>76</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>229</v>
       </c>
@@ -2242,7 +2517,7 @@
         <v>76</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>231</v>
       </c>
@@ -2253,7 +2528,7 @@
         <v>76</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>233</v>
       </c>
@@ -2264,7 +2539,7 @@
         <v>79</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>235</v>
       </c>
@@ -2275,7 +2550,7 @@
         <v>85</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>237</v>
       </c>
@@ -2286,7 +2561,7 @@
         <v>92</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>239</v>
       </c>
@@ -2298,10 +2573,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2309,25 +2583,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100">
-      <selection activeCell="B2" activeCellId="1" pane="topLeft" sqref="H7 B2"/>
+    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="B2" activeCellId="1" sqref="H7 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5561224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.4489795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3367346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5561224489796"/>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="2" width="28.42578125"/>
+    <col min="3" max="3" width="23.28515625"/>
+    <col min="4" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="1" s="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2344,7 +2615,7 @@
         <v>242</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>243</v>
       </c>
@@ -2352,7 +2623,7 @@
         <v>38</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>244</v>
       </c>
@@ -2365,12 +2636,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://www.weso.es" ref="C3" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId1"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
